--- a/2025.1~5 입찰목록.xlsx
+++ b/2025.1~5 입찰목록.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chief\Documents\황지애_git_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BCCF7-093D-4389-9778-9482148BEF71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82925A89-6418-484F-B958-9D80AA63517D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025,1월~5월" sheetId="1" r:id="rId1"/>
+    <sheet name="2025.6~12월 변경자료 예정" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2184,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6553,4 +6554,19 @@
     <oddFooter>&amp;Lsanbid&amp;R&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A07B56-13BE-4EBC-B007-AC4FB79BB023}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2025.1~5 입찰목록.xlsx
+++ b/2025.1~5 입찰목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chief\Documents\황지애_git_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82925A89-6418-484F-B958-9D80AA63517D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0335C23-B1D1-49F3-A2A3-90C7392206D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="292">
   <si>
     <t>내투찰정보조회서비스</t>
   </si>
@@ -937,6 +937,43 @@
   </si>
   <si>
     <t>주식회사 에이치엔링크</t>
+  </si>
+  <si>
+    <r>
+      <t>분석기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 2025-05-26 ~ 2025-06-04 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">입찰건수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 총 1 건이며 낙찰1순위는 0 건입니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>평화의 광장·수변무대 판석교체 등 시설개선공사(통신)</t>
+  </si>
+  <si>
+    <t>25-06-02</t>
+  </si>
+  <si>
+    <t>(주)가온데이터</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1813,6 +1850,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2206,18 +2246,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2256,10 +2296,10 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="1"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
@@ -2274,10 +2314,10 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="1"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
@@ -2292,10 +2332,10 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
@@ -2310,10 +2350,10 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
@@ -2328,10 +2368,10 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
@@ -2448,20 +2488,20 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -6558,14 +6598,416 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A07B56-13BE-4EBC-B007-AC4FB79BB023}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="14" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="16">
+        <v>1</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-168</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1165</v>
+      </c>
+      <c r="E19" s="18">
+        <v>87.506</v>
+      </c>
+      <c r="F19" s="18">
+        <v>99.929000000000002</v>
+      </c>
+      <c r="G19" s="19">
+        <v>154671000</v>
+      </c>
+      <c r="H19" s="19">
+        <v>135347060</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19" s="22">
+        <v>135621475</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0.87746000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2025.1~5 입찰목록.xlsx
+++ b/2025.1~5 입찰목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chief\Documents\황지애_git_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0335C23-B1D1-49F3-A2A3-90C7392206D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01854D-3140-4A86-A77F-1D7C3A81B03E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="320">
   <si>
     <t>내투찰정보조회서비스</t>
   </si>
@@ -975,6 +975,90 @@
   <si>
     <t>(주)가온데이터</t>
   </si>
+  <si>
+    <t> 2025년 소규모주택 CCTV 설치공사</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00873120-000 호</t>
+  </si>
+  <si>
+    <t>정보통신</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>-150 ( 1100 )</t>
+  </si>
+  <si>
+    <t> 2025년 임대아파트 인터폰 교체공사</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00873259-000 호</t>
+  </si>
+  <si>
+    <t>44 ( 993 )</t>
+  </si>
+  <si>
+    <t> 산업기술수사대 디지털 증거분석실 통신공사</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00876118-000 호</t>
+  </si>
+  <si>
+    <t>-72 ( 1147 )</t>
+  </si>
+  <si>
+    <t> 옥계, 사천사업소 리모델링 통신공사</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00882579-000 호</t>
+  </si>
+  <si>
+    <t>전국</t>
+  </si>
+  <si>
+    <t>2201 ( 3552 )</t>
+  </si>
+  <si>
+    <t> 제기동역 승강편의시설(66공구) 설치에 따른 정보통신공사</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00870698-000 호</t>
+  </si>
+  <si>
+    <t>418 ( 1043 )</t>
+  </si>
+  <si>
+    <t> 2025년 홍제역 대합실 환경개선 정보통신공사</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00876344-000 호</t>
+  </si>
+  <si>
+    <t>288 ( 1062 )</t>
+  </si>
+  <si>
+    <t> 경부선 노량진역 등 5역 환승통로 영상감시설비 신설공사</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00876848-000 호</t>
+  </si>
+  <si>
+    <t>경기/서울</t>
+  </si>
+  <si>
+    <t>750 ( 3073 )</t>
+  </si>
+  <si>
+    <t> 평화의 광장·수변무대 판석교체 등 시설개선공사(통신)</t>
+  </si>
+  <si>
+    <t>조달청 시설 R25BK00869829-000 호</t>
+  </si>
+  <si>
+    <t>-168 ( 1165 )</t>
+  </si>
 </sst>
 </file>
 
@@ -984,7 +1068,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -1203,6 +1287,64 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0066FF"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0066FF"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1397,7 +1539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1644,8 +1786,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1775,8 +1956,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1867,8 +2051,77 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="22" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="24" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="34" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="34" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="34" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - 강조색1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -1912,6 +2165,7 @@
     <cellStyle name="좋음" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="43" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1924,6 +2178,6348 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E892E7-5631-4F3F-8990-71DEE7424046}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B967F69-BD6E-4FBF-9D0B-266AE7E0F22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="4448175"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA364F5-1B72-4FC2-869F-86F752C6326E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="4448175"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0737734-EC0B-42BD-82D3-191D8EA2B938}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D369B582-F8D7-4B55-B162-9E8DAFFBF352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="4924425"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA1C1BB-710B-4BCE-BB75-2AD005AC2874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="4924425"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EE12DC-DA5F-45DC-98EA-7D263E0C4CAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C8E547-E5D3-4058-A87D-A5EC0018FB17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5276850"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CD9ABB-C4C2-495F-840F-6801C315676E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5276850"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86573F3-EAF5-420E-B9BA-D545533582B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5276850"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Control 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617F7C74-4FE8-4F4A-AADA-59CDAE48A6A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFB04F3-F5F9-4B27-B24C-77CA8B210D81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5743575"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A752F456-8584-4EF5-A5E7-F36B7C07BA4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5743575"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5213AD3-94ED-4D14-9A20-5436DE5864A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5743575"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F642191E-1EAA-4162-9AB7-7B53E97A060B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C652609-FB19-47C5-8DD7-4FC56723BD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="6210300"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5C0E76-55DE-434C-B3DE-AD81F7CF300A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="6210300"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B63E65-D2E1-4A73-A487-F739D54222A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="6210300"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Control 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1D7FF9-89C0-4C27-934D-3547CE42C523}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1CC77B-E6C4-43CF-932C-FB5AA91FCC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="6677025"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D0B509-89FA-4DA8-BD4E-B5615B29A6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="6677025"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10D7BD0-2BF1-4F17-B7C8-F3BF14A7B1C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="6677025"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Control 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE9E112-5751-490B-802C-44BC7A6D327B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C382FDD-B982-45E7-9A50-09231DF9CFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="7143750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4847C3-EF09-45F6-A4E4-2BF0C784EB7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="7143750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8478FA4F-28B8-4130-9155-E843EFF90E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="7143750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Control 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF4311B-C009-4A8E-B547-BB1C95EBF089}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC627F9C-19B4-4124-B60A-65F55EB4F0B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="4448175"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CDD3C5-BF39-464F-95D4-1A13A45C6747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="4448175"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Control 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098F3634-E436-4E3B-A135-C1842C0810BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329DB5B8-FE16-4CB5-BBA4-5696552028C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="4924425"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BA7FDB-7874-4F09-BD9E-B837377BCC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="4924425"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Control 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05054754-990C-43ED-B76E-BC5BF97D2110}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4759B1-BFBA-4D73-A9D5-883A12FE82C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5095875"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FCCC6C-9F77-46CF-AB43-E90E880CE2B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5095875"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF93B845-BEF1-4974-8579-B02E8ADF26D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5095875"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Control 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFB03D6-1B52-4744-BB6B-FAAA6903CBB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57E27EA-2AEF-44C4-AF6D-B64E319FC538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5276850"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD95F8C-28E7-4FAC-AC6D-63CA5E7C2D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5276850"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B9063E-6398-4E08-9CD7-2A6B1B5C518E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5276850"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Control 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF024347-465A-4CAA-96F2-CF9C19F1DA80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DDFEC9-FC5F-4E4A-B682-0B65837336FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5562600"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F3A257-9876-441C-A712-083458745FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5562600"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F892CDDB-77CF-4128-AD74-2FA90EE0760E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5562600"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Control 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACE3DAB-E04E-4525-B61C-2FD30FD81016}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887C6A61-C013-4903-8D07-635ABBE80788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5743575"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732A1F61-9AEA-4636-A224-E0AC0336BC16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5743575"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA9AC36-DCA5-40FD-877C-D184CCD4932F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5743575"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Control 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A17F49-5F7D-4B29-B21F-3D7CE7F0122A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DC918-2E69-46F5-918F-242203484396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="6029325"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B11C4B-A10E-4EBE-A6EE-1B2EF789C354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="6029325"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CB35C0-CD8F-4A5D-81FE-429A5FA02401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="6029325"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Control 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9EBE8F-A2EB-4700-91AE-72054256CAB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC49382-F26B-4327-A8C8-5E8757FFA087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="6210300"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Control 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E19B77-0AF5-44FC-9591-AA404E3A0CAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795153D9-4580-4AF5-ACE8-741C34E19FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="4791075"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED3FC5A-32C5-44CE-B0E8-95CB54909C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="4791075"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Control 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD036F1-ABF1-433F-8050-864B164B7839}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F28F346-FB32-49FD-B715-1B4392402699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5267325"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 64" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93FD0D6-1EBC-4714-A73E-8E7B4599E6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5267325"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Control 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658E15C8-8A1F-47F2-A106-86D12803DCAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="그림 66" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4573399B-F369-439A-BD0D-A92D6F696B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5619750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DB11E7-4122-4438-B3BE-5FF23EB06FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:artisticGlowDiffused/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5619750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FE73AE-5B6A-49F8-B7BB-2AF8FF26E216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5619750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Control 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784F682B-4DF2-4D78-896C-C5F7A85B1FCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5F51F0-FDC8-432C-ADA9-3A2220429BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="6086475"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="그림 72" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF90FCFB-8F0A-4DA5-A243-5B84A8262CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="6086475"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Control 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7B7FF5-1292-4807-9C28-A4A4B3A887E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="그림 74" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31ECE55B-FA2D-4648-89A5-D0E54A11DD30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="6553200"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="그림 76" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B0C459-C844-427B-A31E-D0F5583A1111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="6553200"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Control 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F81C42-536E-4C94-BDC3-EB28C00FB133}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="그림 79" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F66C4C-60DF-4C65-A99E-DD2FA9E84C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:artisticGlowDiffused/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="7019925"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="그림 81" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6B12BC-0B72-4B5C-8C06-0CB0C181CC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="7019925"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Control 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E53BFA7-B33A-466A-8AAF-9DD570F18E48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="그림 85" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DB24B9-B2BF-495A-A55F-900B91C4B7F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId9">
+                  <a14:imgEffect>
+                    <a14:artisticPencilSketch/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="7486650"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Control 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946F158F-E38B-433C-A471-789702A69C40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1137" name="Control 113" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1137"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB8FC30-C9C1-4B6D-94DD-CBCCAB922E50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="그림 114" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E46D9F-AE47-46D3-B4E0-EC1DB259F95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="4619625"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="그림 115" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C484FD-BC46-4742-8493-825AB357EE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="4619625"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1140" name="Control 116" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1140"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDF99C8-672A-402A-8D33-7FE9AF49CBD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="그림 117" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F02AD8-14B0-4952-8FE2-9893C40D440E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5095875"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="그림 118" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00A15B8-F65C-4626-B9CB-BB945FFBA6D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5095875"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1143" name="Control 119" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1143"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28ACB21-D601-41ED-88F4-7A03C90C9090}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="그림 120" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EEEEEC-A19D-41BE-9F5A-E5646D420ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5448300"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="그림 121" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E547C83-1F43-4862-909F-722ED747D2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5448300"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="그림 122" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F316DC-9AD2-48EE-930D-BD186CB91CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5448300"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1147" name="Control 123" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1147"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15D81D0-47C4-4E41-BE5B-4261708EC4E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="그림 124" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82F7792-7C41-4A6C-AE5D-6BD401A8C139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="5915025"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="그림 125" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFC5352-1F9A-43B0-9E2E-75C52A323372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="5915025"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="그림 126" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D500209F-FF3D-4C9E-A2B3-64092B9C5950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5915025"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1151" name="Control 127" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34C4703-45CC-463C-B63F-D536F9EF435C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="그림 128" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B111B89-1206-4B8A-9F17-F4005B88CA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="6381750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="그림 129" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8150F8C8-37D2-4091-ACC1-927038BBED46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="6381750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="그림 130" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BADD3B-7937-4E77-85E2-6A7D6FD61B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="6381750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="그림 131" descr="연기">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2154949-917B-435C-AC04-52F9AF0EDA4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1066800" y="6381750"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1156" name="Control 132" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393AD3CD-DBEE-48A1-B6D7-AF4846F9D980}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="그림 133" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E38C01-002B-42CD-A6DD-6E714D30C03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="6848475"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="그림 134" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91F78ED-69A1-4CFE-B9A3-A4F52C8CA8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="6848475"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="그림 135" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77682D18-1094-4A96-B1D6-66220A82C3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="6848475"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1160" name="Control 136" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1160"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADB2250-12CA-48B2-B8DD-1DCCC796CDEF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="그림 137" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCE0315-F02C-4FDA-AB91-20C773954119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="7315200"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="그림 138" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA27989-945A-435D-95B6-68E3CE9CF177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="7315200"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="그림 139" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE8CB98-9AA0-4822-8F52-7AD018DE4A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="7315200"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1164" name="Control 140" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1164"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96759C2F-0ABB-4CC7-96BA-39DB151EA7EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="그림 141" descr="결과">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F43A34-0791-48F7-BBEF-3268367165F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="7781925"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="그림 142" descr="전자">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACE85AF-D572-49B0-8C77-4B9046883168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="7781925"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="그림 143" descr="수의">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6354B80B-0046-4C62-9A51-7507690376AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="7781925"/>
+          <a:ext cx="228600" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2229,7 +8825,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="39.109375" customWidth="1"/>
@@ -2245,7 +8841,7 @@
     <col min="13" max="14" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +8859,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2279,7 +8875,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2295,7 +8891,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +8909,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +8927,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
@@ -2349,7 +8945,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +8963,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
@@ -2385,7 +8981,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="14.25" thickBot="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -2401,7 +8997,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2417,7 +9013,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2433,7 +9029,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +9047,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
@@ -2487,7 +9083,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
@@ -2503,7 +9099,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2519,7 +9115,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2535,7 +9131,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -2553,7 +9149,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2570,7 +9166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="16">
         <v>105</v>
       </c>
@@ -2608,7 +9204,7 @@
         <v>0.88519000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="16">
         <v>104</v>
       </c>
@@ -2646,7 +9242,7 @@
         <v>0.88573000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="16">
         <v>103</v>
       </c>
@@ -2684,7 +9280,7 @@
         <v>0.88414000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="16">
         <v>102</v>
       </c>
@@ -2722,7 +9318,7 @@
         <v>0.88471999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="16">
         <v>101</v>
       </c>
@@ -2760,7 +9356,7 @@
         <v>0.88563000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="16">
         <v>100</v>
       </c>
@@ -2798,7 +9394,7 @@
         <v>0.87526999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="16">
         <v>99</v>
       </c>
@@ -2836,7 +9432,7 @@
         <v>0.88544</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="16">
         <v>98</v>
       </c>
@@ -2874,7 +9470,7 @@
         <v>0.88544</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="22.5">
       <c r="A27" s="16">
         <v>97</v>
       </c>
@@ -2912,7 +9508,7 @@
         <v>0.87585000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="16">
         <v>96</v>
       </c>
@@ -2950,7 +9546,7 @@
         <v>0.90303999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="16">
         <v>95</v>
       </c>
@@ -2988,7 +9584,7 @@
         <v>0.87753000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="22.5">
       <c r="A30" s="16">
         <v>94</v>
       </c>
@@ -3026,7 +9622,7 @@
         <v>0.89917999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="16">
         <v>93</v>
       </c>
@@ -3064,7 +9660,7 @@
         <v>0.88546999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="16">
         <v>92</v>
       </c>
@@ -3102,7 +9698,7 @@
         <v>0.88565000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33" s="16">
         <v>91</v>
       </c>
@@ -3140,7 +9736,7 @@
         <v>0.87746000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34" s="16">
         <v>90</v>
       </c>
@@ -3178,7 +9774,7 @@
         <v>0.92088000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="A35" s="16">
         <v>89</v>
       </c>
@@ -3216,7 +9812,7 @@
         <v>0.87361</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36" s="16">
         <v>88</v>
       </c>
@@ -3254,7 +9850,7 @@
         <v>0.88529000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="A37" s="16">
         <v>87</v>
       </c>
@@ -3292,7 +9888,7 @@
         <v>0.87422</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38" s="16">
         <v>86</v>
       </c>
@@ -3330,7 +9926,7 @@
         <v>0.89944999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39" s="16">
         <v>85</v>
       </c>
@@ -3368,7 +9964,7 @@
         <v>0.87744999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12">
       <c r="A40" s="16">
         <v>84</v>
       </c>
@@ -3406,7 +10002,7 @@
         <v>0.87426000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12">
       <c r="A41" s="16">
         <v>83</v>
       </c>
@@ -3444,7 +10040,7 @@
         <v>0.88478999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12">
       <c r="A42" s="16">
         <v>82</v>
       </c>
@@ -3482,7 +10078,7 @@
         <v>0.88536999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12">
       <c r="A43" s="16">
         <v>81</v>
       </c>
@@ -3520,7 +10116,7 @@
         <v>0.90361000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12">
       <c r="A44" s="16">
         <v>80</v>
       </c>
@@ -3558,7 +10154,7 @@
         <v>0.88497999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12">
       <c r="A45" s="16">
         <v>79</v>
       </c>
@@ -3596,7 +10192,7 @@
         <v>0.87744999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12">
       <c r="A46" s="16">
         <v>78</v>
       </c>
@@ -3634,7 +10230,7 @@
         <v>0.88424999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12">
       <c r="A47" s="16">
         <v>77</v>
       </c>
@@ -3672,7 +10268,7 @@
         <v>0.88602000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12">
       <c r="A48" s="16">
         <v>76</v>
       </c>
@@ -3710,7 +10306,7 @@
         <v>0.87636000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49" s="16">
         <v>75</v>
       </c>
@@ -3748,7 +10344,7 @@
         <v>0.89154</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50" s="16">
         <v>74</v>
       </c>
@@ -3786,7 +10382,7 @@
         <v>0.88641999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51" s="16">
         <v>73</v>
       </c>
@@ -3824,7 +10420,7 @@
         <v>0.88690000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52" s="16">
         <v>72</v>
       </c>
@@ -3862,7 +10458,7 @@
         <v>0.88243000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" ht="22.5">
       <c r="A53" s="16">
         <v>71</v>
       </c>
@@ -3900,7 +10496,7 @@
         <v>0.88171999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54" s="16">
         <v>70</v>
       </c>
@@ -3938,7 +10534,7 @@
         <v>0.87902999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55" s="16">
         <v>69</v>
       </c>
@@ -3976,7 +10572,7 @@
         <v>0.88495000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56" s="16">
         <v>68</v>
       </c>
@@ -4014,7 +10610,7 @@
         <v>0.87744999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57" s="16">
         <v>67</v>
       </c>
@@ -4052,7 +10648,7 @@
         <v>0.88592000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" ht="22.5">
       <c r="A58" s="16">
         <v>66</v>
       </c>
@@ -4090,7 +10686,7 @@
         <v>0.88549</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59" s="16">
         <v>65</v>
       </c>
@@ -4128,7 +10724,7 @@
         <v>0.89107999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12">
       <c r="A60" s="16">
         <v>64</v>
       </c>
@@ -4166,7 +10762,7 @@
         <v>0.87744999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12">
       <c r="A61" s="16">
         <v>63</v>
       </c>
@@ -4204,7 +10800,7 @@
         <v>0.88499000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12">
       <c r="A62" s="16">
         <v>62</v>
       </c>
@@ -4242,7 +10838,7 @@
         <v>0.88353000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -4280,7 +10876,7 @@
         <v>0.87748000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12">
       <c r="A64" s="16">
         <v>60</v>
       </c>
@@ -4318,7 +10914,7 @@
         <v>0.88573999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12">
       <c r="A65" s="16">
         <v>59</v>
       </c>
@@ -4356,7 +10952,7 @@
         <v>0.88549</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12">
       <c r="A66" s="16">
         <v>58</v>
       </c>
@@ -4394,7 +10990,7 @@
         <v>0.88492000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12">
       <c r="A67" s="16">
         <v>57</v>
       </c>
@@ -4432,7 +11028,7 @@
         <v>0.88278999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12">
       <c r="A68" s="16">
         <v>56</v>
       </c>
@@ -4470,7 +11066,7 @@
         <v>0.88532999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12">
       <c r="A69" s="16">
         <v>55</v>
       </c>
@@ -4508,7 +11104,7 @@
         <v>0.87746000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12">
       <c r="A70" s="16">
         <v>54</v>
       </c>
@@ -4546,7 +11142,7 @@
         <v>0.88055000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12">
       <c r="A71" s="16">
         <v>53</v>
       </c>
@@ -4584,7 +11180,7 @@
         <v>0.89427999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12">
       <c r="A72" s="16">
         <v>52</v>
       </c>
@@ -4622,7 +11218,7 @@
         <v>0.88546999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12">
       <c r="A73" s="16">
         <v>51</v>
       </c>
@@ -4660,7 +11256,7 @@
         <v>0.88532</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12">
       <c r="A74" s="16">
         <v>50</v>
       </c>
@@ -4698,7 +11294,7 @@
         <v>0.88319999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" ht="22.5">
       <c r="A75" s="16">
         <v>49</v>
       </c>
@@ -4736,7 +11332,7 @@
         <v>0.87778999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12">
       <c r="A76" s="16">
         <v>48</v>
       </c>
@@ -4774,7 +11370,7 @@
         <v>0.88573999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" ht="22.5">
       <c r="A77" s="16">
         <v>47</v>
       </c>
@@ -4812,7 +11408,7 @@
         <v>0.87626000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12">
       <c r="A78" s="16">
         <v>46</v>
       </c>
@@ -4850,7 +11446,7 @@
         <v>0.88492000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12">
       <c r="A79" s="16">
         <v>45</v>
       </c>
@@ -4888,7 +11484,7 @@
         <v>0.88482000000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12">
       <c r="A80" s="16">
         <v>44</v>
       </c>
@@ -4926,7 +11522,7 @@
         <v>0.88253999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12">
       <c r="A81" s="16">
         <v>43</v>
       </c>
@@ -4964,7 +11560,7 @@
         <v>0.8851</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12">
       <c r="A82" s="16">
         <v>42</v>
       </c>
@@ -5002,7 +11598,7 @@
         <v>0.88670000000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12">
       <c r="A83" s="16">
         <v>41</v>
       </c>
@@ -5040,7 +11636,7 @@
         <v>0.88514999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12">
       <c r="A84" s="16">
         <v>40</v>
       </c>
@@ -5078,7 +11674,7 @@
         <v>0.87746000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12">
       <c r="A85" s="16">
         <v>39</v>
       </c>
@@ -5116,7 +11712,7 @@
         <v>0.88356000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12">
       <c r="A86" s="16">
         <v>38</v>
       </c>
@@ -5154,7 +11750,7 @@
         <v>0.87934999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" ht="22.5">
       <c r="A87" s="16">
         <v>37</v>
       </c>
@@ -5192,7 +11788,7 @@
         <v>0.88417999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" ht="22.5">
       <c r="A88" s="16">
         <v>36</v>
       </c>
@@ -5230,7 +11826,7 @@
         <v>0.89002999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12">
       <c r="A89" s="16">
         <v>35</v>
       </c>
@@ -5268,7 +11864,7 @@
         <v>0.88524000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12">
       <c r="A90" s="16">
         <v>34</v>
       </c>
@@ -5306,7 +11902,7 @@
         <v>0.87912000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12">
       <c r="A91" s="16">
         <v>33</v>
       </c>
@@ -5344,7 +11940,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12">
       <c r="A92" s="16">
         <v>32</v>
       </c>
@@ -5382,7 +11978,7 @@
         <v>0.88441000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12">
       <c r="A93" s="16">
         <v>31</v>
       </c>
@@ -5420,7 +12016,7 @@
         <v>0.88515999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" ht="22.5">
       <c r="A94" s="16">
         <v>30</v>
       </c>
@@ -5458,7 +12054,7 @@
         <v>0.87407000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12">
       <c r="A95" s="16">
         <v>29</v>
       </c>
@@ -5496,7 +12092,7 @@
         <v>0.91786000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12">
       <c r="A96" s="16">
         <v>28</v>
       </c>
@@ -5534,7 +12130,7 @@
         <v>0.87746000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12">
       <c r="A97" s="16">
         <v>27</v>
       </c>
@@ -5572,7 +12168,7 @@
         <v>0.91300999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12">
       <c r="A98" s="16">
         <v>26</v>
       </c>
@@ -5610,7 +12206,7 @@
         <v>0.88522999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12">
       <c r="A99" s="16">
         <v>25</v>
       </c>
@@ -5648,7 +12244,7 @@
         <v>0.88690999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12">
       <c r="A100" s="16">
         <v>24</v>
       </c>
@@ -5686,7 +12282,7 @@
         <v>0.87744999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12">
       <c r="A101" s="16">
         <v>23</v>
       </c>
@@ -5724,7 +12320,7 @@
         <v>0.88593999999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12">
       <c r="A102" s="16">
         <v>22</v>
       </c>
@@ -5762,7 +12358,7 @@
         <v>0.88454999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12">
       <c r="A103" s="16">
         <v>21</v>
       </c>
@@ -5800,7 +12396,7 @@
         <v>0.87744999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12">
       <c r="A104" s="16">
         <v>20</v>
       </c>
@@ -5838,7 +12434,7 @@
         <v>0.88517999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12">
       <c r="A105" s="16">
         <v>19</v>
       </c>
@@ -5876,7 +12472,7 @@
         <v>0.88553000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12">
       <c r="A106" s="16">
         <v>18</v>
       </c>
@@ -5914,7 +12510,7 @@
         <v>0.87648999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" ht="22.5">
       <c r="A107" s="16">
         <v>17</v>
       </c>
@@ -5952,7 +12548,7 @@
         <v>0.87634000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12">
       <c r="A108" s="16">
         <v>16</v>
       </c>
@@ -5990,7 +12586,7 @@
         <v>0.87744999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12">
       <c r="A109" s="16">
         <v>15</v>
       </c>
@@ -6028,7 +12624,7 @@
         <v>0.87599000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12">
       <c r="A110" s="16">
         <v>14</v>
       </c>
@@ -6066,7 +12662,7 @@
         <v>0.88636999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12">
       <c r="A111" s="16">
         <v>13</v>
       </c>
@@ -6104,7 +12700,7 @@
         <v>0.88568999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12">
       <c r="A112" s="16">
         <v>12</v>
       </c>
@@ -6142,7 +12738,7 @@
         <v>0.88592000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14">
       <c r="A113" s="16">
         <v>11</v>
       </c>
@@ -6180,7 +12776,7 @@
         <v>0.88497000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14">
       <c r="A114" s="16">
         <v>10</v>
       </c>
@@ -6218,7 +12814,7 @@
         <v>0.87746999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14">
       <c r="A115" s="16">
         <v>9</v>
       </c>
@@ -6256,7 +12852,7 @@
         <v>0.88382000000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14">
       <c r="A116" s="16">
         <v>8</v>
       </c>
@@ -6294,7 +12890,7 @@
         <v>0.88573000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" ht="22.5">
       <c r="A117" s="16">
         <v>7</v>
       </c>
@@ -6332,7 +12928,7 @@
         <v>0.87924000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" ht="22.5">
       <c r="A118" s="16">
         <v>6</v>
       </c>
@@ -6370,7 +12966,7 @@
         <v>0.88593</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" ht="22.5">
       <c r="A119" s="16">
         <v>5</v>
       </c>
@@ -6408,7 +13004,7 @@
         <v>0.88275000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14">
       <c r="A120" s="16">
         <v>4</v>
       </c>
@@ -6446,7 +13042,7 @@
         <v>0.88007999999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14">
       <c r="A121" s="16">
         <v>3</v>
       </c>
@@ -6484,7 +13080,7 @@
         <v>0.88522999999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" ht="22.5">
       <c r="A122" s="16">
         <v>2</v>
       </c>
@@ -6522,7 +13118,7 @@
         <v>0.88471</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" ht="22.5">
       <c r="A123" s="16">
         <v>1</v>
       </c>
@@ -6560,7 +13156,7 @@
         <v>0.89032999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" s="24" customFormat="1" ht="14.25" thickBot="1">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -6597,20 +13193,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A07B56-13BE-4EBC-B007-AC4FB79BB023}">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A07B56-13BE-4EBC-B007-AC4FB79BB023}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="39.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="7" width="8.77734375" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" customWidth="1"/>
     <col min="10" max="10" width="8.21875" customWidth="1"/>
@@ -6619,7 +13217,7 @@
     <col min="13" max="14" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +13235,7 @@
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6653,7 +13251,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6669,7 +13267,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
     </row>
-    <row r="4" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="14.1" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
@@ -6687,7 +13285,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="14.1" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
@@ -6705,7 +13303,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="14.1" customHeight="1">
       <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
@@ -6723,7 +13321,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
     </row>
-    <row r="7" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="14.1" customHeight="1">
       <c r="A7" s="28" t="s">
         <v>287</v>
       </c>
@@ -6741,7 +13339,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
     </row>
-    <row r="8" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="14.1" customHeight="1">
       <c r="A8" s="28" t="s">
         <v>288</v>
       </c>
@@ -6759,7 +13357,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="14.25" thickBot="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -6775,7 +13373,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -6791,7 +13389,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -6807,7 +13405,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="24.95" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -6825,7 +13423,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="21.95" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
@@ -6861,7 +13459,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
@@ -6877,7 +13475,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -6893,7 +13491,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -6909,7 +13507,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="24.95" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -6927,7 +13525,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
     </row>
-    <row r="18" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="21.95" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -6944,7 +13542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="16">
         <v>1</v>
       </c>
@@ -6982,7 +13580,7 @@
         <v>0.87746000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="24" customFormat="1" ht="14.25" thickBot="1">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -6998,8 +13596,417 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
+    <row r="22" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="23" spans="1:14" ht="23.25" thickTop="1">
+      <c r="A23" s="45">
+        <v>8</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="43">
+        <v>100.798</v>
+      </c>
+      <c r="F23" s="44">
+        <v>120526000</v>
+      </c>
+      <c r="G23" s="47">
+        <v>45817.541666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="35">
+        <v>87.819000000000003</v>
+      </c>
+      <c r="E24" s="37">
+        <v>100.339</v>
+      </c>
+      <c r="F24" s="39">
+        <v>106690320</v>
+      </c>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="49">
+        <v>7</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="36">
+        <v>99.605999999999995</v>
+      </c>
+      <c r="F25" s="38">
+        <v>903200000</v>
+      </c>
+      <c r="G25" s="50">
+        <v>45817.541666666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="35">
+        <v>88.218999999999994</v>
+      </c>
+      <c r="E26" s="37">
+        <v>99.704999999999998</v>
+      </c>
+      <c r="F26" s="39">
+        <v>793659710</v>
+      </c>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:14" ht="22.5">
+      <c r="A27" s="49">
+        <v>6</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="36">
+        <v>99.86</v>
+      </c>
+      <c r="F27" s="38">
+        <v>70681430</v>
+      </c>
+      <c r="G27" s="50">
+        <v>45817.458333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="35">
+        <v>87.682000000000002</v>
+      </c>
+      <c r="E28" s="37">
+        <v>99.787999999999997</v>
+      </c>
+      <c r="F28" s="39">
+        <v>61888070</v>
+      </c>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:14" ht="22.5">
+      <c r="A29" s="49">
+        <v>5</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" s="36">
+        <v>99.275999999999996</v>
+      </c>
+      <c r="F29" s="38">
+        <v>36080000</v>
+      </c>
+      <c r="G29" s="50">
+        <v>45817.458333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" s="35">
+        <v>88.674999999999997</v>
+      </c>
+      <c r="E30" s="37">
+        <v>100.32899999999999</v>
+      </c>
+      <c r="F30" s="39">
+        <v>31762590</v>
+      </c>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:14" ht="22.5">
+      <c r="A31" s="49">
+        <v>4</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="E31" s="36">
+        <v>99.372</v>
+      </c>
+      <c r="F31" s="38">
+        <v>65156840</v>
+      </c>
+      <c r="G31" s="50">
+        <v>45813.611111111109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D32" s="35">
+        <v>91.096999999999994</v>
+      </c>
+      <c r="E32" s="37">
+        <v>100.125</v>
+      </c>
+      <c r="F32" s="39">
+        <v>58983350</v>
+      </c>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" ht="22.5">
+      <c r="A33" s="49">
+        <v>3</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="E33" s="36">
+        <v>99.537999999999997</v>
+      </c>
+      <c r="F33" s="38">
+        <v>47947100</v>
+      </c>
+      <c r="G33" s="50">
+        <v>45813.458333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="35">
+        <v>90.863</v>
+      </c>
+      <c r="E34" s="37">
+        <v>100.04900000000001</v>
+      </c>
+      <c r="F34" s="39">
+        <v>43365060</v>
+      </c>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" ht="22.5">
+      <c r="A35" s="49">
+        <v>2</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="E35" s="36">
+        <v>99.706000000000003</v>
+      </c>
+      <c r="F35" s="38">
+        <v>105558000</v>
+      </c>
+      <c r="G35" s="50">
+        <v>45813.458333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" s="35">
+        <v>88.061000000000007</v>
+      </c>
+      <c r="E36" s="37">
+        <v>100.065</v>
+      </c>
+      <c r="F36" s="39">
+        <v>92682260</v>
+      </c>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:7" ht="22.5">
+      <c r="A37" s="49">
+        <v>1</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E37" s="36">
+        <v>99.929000000000002</v>
+      </c>
+      <c r="F37" s="38">
+        <v>154671000</v>
+      </c>
+      <c r="G37" s="50">
+        <v>45810.458333333336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="35">
+        <v>87.567999999999998</v>
+      </c>
+      <c r="E38" s="37">
+        <v>99.727999999999994</v>
+      </c>
+      <c r="F38" s="39">
+        <v>135347060</v>
+      </c>
+      <c r="G38" s="48"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="F40" s="51"/>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="F42" s="51"/>
+      <c r="G42" s="52"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="6:7">
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
+    </row>
+    <row r="55" spans="6:7">
+      <c r="F55" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="23">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:B4"/>
@@ -7009,6 +14016,795 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="javascript:viewBid(2025052830727,0,2);" xr:uid="{B353BD10-1723-43F8-BD4A-8A41E88975CD}"/>
+    <hyperlink ref="B25" r:id="rId2" display="javascript:viewBid(2025052830776,0,2);" xr:uid="{E3BFC9BE-B26C-4DD3-81E0-62CFACF80456}"/>
+    <hyperlink ref="B27" r:id="rId3" display="javascript:viewBid(2025052930830,0,2);" xr:uid="{43B62A19-6840-41F0-A0EE-DAF0F0EAC73E}"/>
+    <hyperlink ref="B29" r:id="rId4" display="javascript:viewBid(2025060231613,0,2);" xr:uid="{9FA3FE68-F8CF-4E35-A1A5-0F7010434376}"/>
+    <hyperlink ref="B31" r:id="rId5" display="javascript:viewBid(2025052731062,0,2);" xr:uid="{7A76D927-D45A-490A-A813-5D82336A7B87}"/>
+    <hyperlink ref="B33" r:id="rId6" display="javascript:viewBid(2025052930962,0,2);" xr:uid="{6691806B-F3F2-4A43-8EE2-E6BB2D3501A8}"/>
+    <hyperlink ref="B35" r:id="rId7" display="javascript:viewBid(2025052931290,0,2);" xr:uid="{C565E034-DB27-48AA-A864-47F81D154C58}"/>
+    <hyperlink ref="B37" r:id="rId8" display="javascript:viewBid(2025052730674,0,2);" xr:uid="{C2BB8A4A-C198-4061-AB3A-AE3C9E4BD5C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1164" r:id="rId11" name="Control 140">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1164" r:id="rId11" name="Control 140"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1160" r:id="rId13" name="Control 136">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1160" r:id="rId13" name="Control 136"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1156" r:id="rId14" name="Control 132">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1156" r:id="rId14" name="Control 132"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1151" r:id="rId15" name="Control 127">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1151" r:id="rId15" name="Control 127"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1147" r:id="rId16" name="Control 123">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1147" r:id="rId16" name="Control 123"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1143" r:id="rId17" name="Control 119">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1143" r:id="rId17" name="Control 119"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1140" r:id="rId18" name="Control 116">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1140" r:id="rId18" name="Control 116"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1137" r:id="rId19" name="Control 113">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1137" r:id="rId19" name="Control 113"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1110" r:id="rId20" name="Control 86">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1110" r:id="rId20" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1106" r:id="rId22" name="Control 82">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1106" r:id="rId22" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId23" name="Control 78">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId23" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId24" name="Control 73">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId24" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1093" r:id="rId25" name="Control 69">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1093" r:id="rId25" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId26" name="Control 65">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1089" r:id="rId26" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1086" r:id="rId27" name="Control 62">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId27" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1083" r:id="rId28" name="Control 59">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1083" r:id="rId28" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1079" r:id="rId29" name="Control 55">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1079" r:id="rId29" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId30" name="Control 51">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId30" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId31" name="Control 47">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId31" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId32" name="Control 42">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId32" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId33" name="Control 38">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId33" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId34" name="Control 34">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId34" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId35" name="Control 31">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId35" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId36" name="Control 28">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId36" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId37" name="Control 24">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId37" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId38" name="Control 20">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId38" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId39" name="Control 15">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId39" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId40" name="Control 11">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId40" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId41" name="Control 7">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId41" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId42" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId42" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId43" name="Control 1">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId43" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>